--- a/Discrete_math/2 сем/дз2/Дз2.xlsx
+++ b/Discrete_math/2 сем/дз2/Дз2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labs\Discrete_math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labs\Itmo_labs\Discrete_math\2 сем\дз2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5E1E1-EE47-4FE3-B793-374202384F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489DAE2F-C7B3-455D-B63C-6C4DC0E3A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,12 +748,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -934,66 +942,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,7 +1279,7 @@
   <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,671 +1688,671 @@
       <c r="M13" s="5"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -2751,23 +2756,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A38:U38"/>
-    <mergeCell ref="A39:U39"/>
-    <mergeCell ref="A40:U40"/>
-    <mergeCell ref="A41:U41"/>
-    <mergeCell ref="A42:U42"/>
-    <mergeCell ref="A43:U43"/>
-    <mergeCell ref="A32:U32"/>
-    <mergeCell ref="A33:U33"/>
-    <mergeCell ref="A34:U34"/>
-    <mergeCell ref="A35:U35"/>
-    <mergeCell ref="A36:U36"/>
-    <mergeCell ref="A37:U37"/>
-    <mergeCell ref="A21:U21"/>
-    <mergeCell ref="A23:U23"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="A27:U27"/>
-    <mergeCell ref="A29:U29"/>
     <mergeCell ref="A31:U31"/>
     <mergeCell ref="A17:U17"/>
     <mergeCell ref="A18:U18"/>
@@ -2778,8 +2766,25 @@
     <mergeCell ref="A28:U28"/>
     <mergeCell ref="A30:U30"/>
     <mergeCell ref="A19:U19"/>
+    <mergeCell ref="A21:U21"/>
+    <mergeCell ref="A23:U23"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A27:U27"/>
+    <mergeCell ref="A29:U29"/>
+    <mergeCell ref="A43:U43"/>
+    <mergeCell ref="A32:U32"/>
+    <mergeCell ref="A33:U33"/>
+    <mergeCell ref="A34:U34"/>
+    <mergeCell ref="A35:U35"/>
+    <mergeCell ref="A36:U36"/>
+    <mergeCell ref="A37:U37"/>
+    <mergeCell ref="A38:U38"/>
+    <mergeCell ref="A39:U39"/>
+    <mergeCell ref="A40:U40"/>
+    <mergeCell ref="A41:U41"/>
+    <mergeCell ref="A42:U42"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
